--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.43264233333333</v>
+        <v>93.24418900000001</v>
       </c>
       <c r="H2">
-        <v>259.297927</v>
+        <v>279.732567</v>
       </c>
       <c r="I2">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="J2">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N2">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q2">
-        <v>11037.44614990709</v>
+        <v>17166.473914686</v>
       </c>
       <c r="R2">
-        <v>99337.01534916378</v>
+        <v>154498.265232174</v>
       </c>
       <c r="S2">
-        <v>0.4766703759573495</v>
+        <v>0.4939536223748411</v>
       </c>
       <c r="T2">
-        <v>0.4766703759573496</v>
+        <v>0.4939536223748411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.43264233333333</v>
+        <v>93.24418900000001</v>
       </c>
       <c r="H3">
-        <v>259.297927</v>
+        <v>279.732567</v>
       </c>
       <c r="I3">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="J3">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.296359</v>
       </c>
       <c r="O3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q3">
-        <v>37.34924459419922</v>
+        <v>40.29264786928367</v>
       </c>
       <c r="R3">
-        <v>336.143201347793</v>
+        <v>362.633830823553</v>
       </c>
       <c r="S3">
-        <v>0.001612988930649489</v>
+        <v>0.001159393563816256</v>
       </c>
       <c r="T3">
-        <v>0.001612988930649489</v>
+        <v>0.001159393563816256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.43264233333333</v>
+        <v>93.24418900000001</v>
       </c>
       <c r="H4">
-        <v>259.297927</v>
+        <v>279.732567</v>
       </c>
       <c r="I4">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="J4">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N4">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q4">
-        <v>64.92699086380733</v>
+        <v>127.548819377289</v>
       </c>
       <c r="R4">
-        <v>584.342917774266</v>
+        <v>1147.939374395601</v>
       </c>
       <c r="S4">
-        <v>0.002803979536977489</v>
+        <v>0.003670130608892645</v>
       </c>
       <c r="T4">
-        <v>0.002803979536977489</v>
+        <v>0.003670130608892645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.43264233333333</v>
+        <v>93.24418900000001</v>
       </c>
       <c r="H5">
-        <v>259.297927</v>
+        <v>279.732567</v>
       </c>
       <c r="I5">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="J5">
-        <v>0.4989038832435519</v>
+        <v>0.5033448418000582</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N5">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q5">
-        <v>412.5473234891167</v>
+        <v>158.5335525680257</v>
       </c>
       <c r="R5">
-        <v>3712.925911402051</v>
+        <v>1426.801973112231</v>
       </c>
       <c r="S5">
-        <v>0.01781653881857543</v>
+        <v>0.004561695252508177</v>
       </c>
       <c r="T5">
-        <v>0.01781653881857544</v>
+        <v>0.004561695252508176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>94.81281800000001</v>
       </c>
       <c r="I6">
-        <v>0.1824252265675234</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="J6">
-        <v>0.1824252265675234</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N6">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O6">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P6">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q6">
-        <v>4035.864787287487</v>
+        <v>5818.420731022253</v>
       </c>
       <c r="R6">
-        <v>36322.78308558738</v>
+        <v>52365.78657920027</v>
       </c>
       <c r="S6">
-        <v>0.1742954990983625</v>
+        <v>0.167421102951758</v>
       </c>
       <c r="T6">
-        <v>0.1742954990983625</v>
+        <v>0.167421102951758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>94.81281800000001</v>
       </c>
       <c r="I7">
-        <v>0.1824252265675234</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="J7">
-        <v>0.1824252265675234</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.296359</v>
       </c>
       <c r="O7">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P7">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q7">
         <v>13.65682776996245</v>
@@ -883,10 +883,10 @@
         <v>122.911449929662</v>
       </c>
       <c r="S7">
-        <v>0.0005897927055841238</v>
+        <v>0.0003929659393447816</v>
       </c>
       <c r="T7">
-        <v>0.0005897927055841238</v>
+        <v>0.0003929659393447816</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>94.81281800000001</v>
       </c>
       <c r="I8">
-        <v>0.1824252265675234</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="J8">
-        <v>0.1824252265675234</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N8">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O8">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P8">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q8">
-        <v>23.74068716738267</v>
+        <v>43.23151618500601</v>
       </c>
       <c r="R8">
-        <v>213.666184506444</v>
+        <v>389.0836456650541</v>
       </c>
       <c r="S8">
-        <v>0.001025280859708419</v>
+        <v>0.001243957502657056</v>
       </c>
       <c r="T8">
-        <v>0.001025280859708419</v>
+        <v>0.001243957502657056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>94.81281800000001</v>
       </c>
       <c r="I9">
-        <v>0.1824252265675234</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="J9">
-        <v>0.1824252265675234</v>
+        <v>0.1706041716509459</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N9">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O9">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P9">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q9">
-        <v>150.8487736516334</v>
+        <v>53.73351064456379</v>
       </c>
       <c r="R9">
-        <v>1357.6389628647</v>
+        <v>483.601595801074</v>
       </c>
       <c r="S9">
-        <v>0.006514653903868378</v>
+        <v>0.001546145257186025</v>
       </c>
       <c r="T9">
-        <v>0.006514653903868378</v>
+        <v>0.001546145257186025</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.182874</v>
+        <v>60.37827433333333</v>
       </c>
       <c r="H10">
-        <v>165.548622</v>
+        <v>181.134823</v>
       </c>
       <c r="I10">
-        <v>0.3185249158641322</v>
+        <v>0.3259301546659619</v>
       </c>
       <c r="J10">
-        <v>0.3185249158641322</v>
+        <v>0.3259301546659619</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N10">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O10">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P10">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q10">
-        <v>7046.851556650984</v>
+        <v>11115.78193207216</v>
       </c>
       <c r="R10">
-        <v>63421.66400985886</v>
+        <v>100042.0373886494</v>
       </c>
       <c r="S10">
-        <v>0.3043299450981</v>
+        <v>0.3198490719855143</v>
       </c>
       <c r="T10">
-        <v>0.3043299450981</v>
+        <v>0.3198490719855142</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.182874</v>
+        <v>60.37827433333333</v>
       </c>
       <c r="H11">
-        <v>165.548622</v>
+        <v>181.134823</v>
       </c>
       <c r="I11">
-        <v>0.3185249158641322</v>
+        <v>0.3259301546659619</v>
       </c>
       <c r="J11">
-        <v>0.3185249158641322</v>
+        <v>0.3259301546659619</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.296359</v>
       </c>
       <c r="O11">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P11">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q11">
-        <v>23.84560511858867</v>
+        <v>26.09063977882856</v>
       </c>
       <c r="R11">
-        <v>214.610446067298</v>
+        <v>234.815758009457</v>
       </c>
       <c r="S11">
-        <v>0.001029811915041945</v>
+        <v>0.0007507404311961885</v>
       </c>
       <c r="T11">
-        <v>0.001029811915041945</v>
+        <v>0.0007507404311961884</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.182874</v>
+        <v>60.37827433333333</v>
       </c>
       <c r="H12">
-        <v>165.548622</v>
+        <v>181.134823</v>
       </c>
       <c r="I12">
-        <v>0.3185249158641322</v>
+        <v>0.3259301546659619</v>
       </c>
       <c r="J12">
-        <v>0.3185249158641322</v>
+        <v>0.3259301546659619</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N12">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O12">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P12">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q12">
-        <v>41.452602388564</v>
+        <v>82.591501838841</v>
       </c>
       <c r="R12">
-        <v>373.073421497076</v>
+        <v>743.323516549569</v>
       </c>
       <c r="S12">
-        <v>0.001790199226941067</v>
+        <v>0.002376514344962385</v>
       </c>
       <c r="T12">
-        <v>0.001790199226941067</v>
+        <v>0.002376514344962385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.182874</v>
+        <v>60.37827433333333</v>
       </c>
       <c r="H13">
-        <v>165.548622</v>
+        <v>181.134823</v>
       </c>
       <c r="I13">
-        <v>0.3185249158641322</v>
+        <v>0.3259301546659619</v>
       </c>
       <c r="J13">
-        <v>0.3185249158641322</v>
+        <v>0.3259301546659619</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N13">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O13">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P13">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q13">
-        <v>263.3906167457</v>
+        <v>102.6550011388932</v>
       </c>
       <c r="R13">
-        <v>2370.5155507113</v>
+        <v>923.8950102500389</v>
       </c>
       <c r="S13">
-        <v>0.01137495962404925</v>
+        <v>0.002953827904289059</v>
       </c>
       <c r="T13">
-        <v>0.01137495962404925</v>
+        <v>0.002953827904289059</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.02528933333333333</v>
+        <v>0.022384</v>
       </c>
       <c r="H14">
-        <v>0.07586799999999999</v>
+        <v>0.067152</v>
       </c>
       <c r="I14">
-        <v>0.0001459743247925071</v>
+        <v>0.0001208318830340463</v>
       </c>
       <c r="J14">
-        <v>0.0001459743247925071</v>
+        <v>0.0001208318830340463</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N14">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O14">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P14">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q14">
-        <v>3.229447200714222</v>
+        <v>4.120946905402668</v>
       </c>
       <c r="R14">
-        <v>29.065024806428</v>
+        <v>37.088522148624</v>
       </c>
       <c r="S14">
-        <v>0.0001394690212202591</v>
+        <v>0.0001185774470432516</v>
       </c>
       <c r="T14">
-        <v>0.0001394690212202591</v>
+        <v>0.0001185774470432516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.02528933333333333</v>
+        <v>0.022384</v>
       </c>
       <c r="H15">
-        <v>0.07586799999999999</v>
+        <v>0.067152</v>
       </c>
       <c r="I15">
-        <v>0.0001459743247925071</v>
+        <v>0.0001208318830340463</v>
       </c>
       <c r="J15">
-        <v>0.0001459743247925071</v>
+        <v>0.0001208318830340463</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.296359</v>
       </c>
       <c r="O15">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P15">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q15">
-        <v>0.01092801829022222</v>
+        <v>0.009672566618666667</v>
       </c>
       <c r="R15">
-        <v>0.098352164612</v>
+        <v>0.087053099568</v>
       </c>
       <c r="S15">
-        <v>4.719445527634912E-07</v>
+        <v>2.783215319987723E-07</v>
       </c>
       <c r="T15">
-        <v>4.719445527634912E-07</v>
+        <v>2.783215319987722E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.02528933333333333</v>
+        <v>0.022384</v>
       </c>
       <c r="H16">
-        <v>0.07586799999999999</v>
+        <v>0.067152</v>
       </c>
       <c r="I16">
-        <v>0.0001459743247925071</v>
+        <v>0.0001208318830340463</v>
       </c>
       <c r="J16">
-        <v>0.0001459743247925071</v>
+        <v>0.0001208318830340463</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N16">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O16">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P16">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q16">
-        <v>0.01899699314933333</v>
+        <v>0.030619095984</v>
       </c>
       <c r="R16">
-        <v>0.170972938344</v>
+        <v>0.275571863856</v>
       </c>
       <c r="S16">
-        <v>8.204165840146037E-07</v>
+        <v>8.810436814400624E-07</v>
       </c>
       <c r="T16">
-        <v>8.204165840146037E-07</v>
+        <v>8.810436814400624E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.02528933333333333</v>
+        <v>0.022384</v>
       </c>
       <c r="H17">
-        <v>0.07586799999999999</v>
+        <v>0.067152</v>
       </c>
       <c r="I17">
-        <v>0.0001459743247925071</v>
+        <v>0.0001208318830340463</v>
       </c>
       <c r="J17">
-        <v>0.0001459743247925071</v>
+        <v>0.0001208318830340463</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N17">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O17">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P17">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q17">
-        <v>0.1207072524666667</v>
+        <v>0.03805722457066667</v>
       </c>
       <c r="R17">
-        <v>1.0863652722</v>
+        <v>0.342515021136</v>
       </c>
       <c r="S17">
-        <v>5.212942435469917E-06</v>
+        <v>1.09507077735582E-06</v>
       </c>
       <c r="T17">
-        <v>5.212942435469917E-06</v>
+        <v>1.09507077735582E-06</v>
       </c>
     </row>
   </sheetData>
